--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201214_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201214_Techglobal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Hà Nội, ngày 14 tháng 12 Năm 2020</t>
+  </si>
+  <si>
+    <t>013226003577133</t>
+  </si>
+  <si>
+    <t>VT_Module_M-9129</t>
+  </si>
+  <si>
+    <t>RTC module GPS</t>
   </si>
 </sst>
 </file>
@@ -801,6 +810,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,33 +902,6 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1248,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1269,7 @@
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" customWidth="1" outlineLevel="1"/>
@@ -1279,94 +1288,94 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="71" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1374,10 +1383,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1388,13 +1397,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1402,10 +1411,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -1417,10 +1426,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1727,42 +1736,62 @@
       </c>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
+        <v>9</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="44">
+        <v>1</v>
+      </c>
+      <c r="I21" s="44">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="44">
+        <v>100000</v>
+      </c>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="46">
-        <f>SUM(J13:J20)</f>
-        <v>510000</v>
-      </c>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="46">
+        <f>SUM(J13:J21)</f>
+        <v>610000</v>
+      </c>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -1771,49 +1800,49 @@
       <c r="J23" s="31"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="80" t="s">
+    <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="34"/>
-      <c r="AA24" s="2"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="34"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
-      <c r="AA25" s="2"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -1822,9 +1851,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="35" t="s">
-        <v>17</v>
-      </c>
+      <c r="F27" s="35"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="35"/>
@@ -1837,7 +1864,9 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="35"/>
+      <c r="F28" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="35"/>
@@ -1857,45 +1886,55 @@
       <c r="J29" s="36"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="84" t="s">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="79"/>
-      <c r="AA30" s="2"/>
-    </row>
-    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F32" s="4"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="5:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E34" s="4"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="5:27" x14ac:dyDescent="0.25">
@@ -1945,17 +1984,13 @@
     </row>
     <row r="50" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA51" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="B23:D24"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1967,6 +2002,13 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B24:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201214_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201214_Techglobal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>RTC module GPS</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>Module GSM</t>
+  </si>
+  <si>
+    <t>VT_Module_SIM800C</t>
   </si>
 </sst>
 </file>
@@ -810,6 +819,72 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -836,72 +911,6 @@
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1257,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="E8" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1278,7 @@
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" customWidth="1" outlineLevel="1"/>
@@ -1288,94 +1297,94 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="80" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1383,10 +1392,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1397,13 +1406,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1411,10 +1420,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -1426,10 +1435,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1741,70 +1750,90 @@
         <v>9</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="45">
+        <v>866104022169794</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="50">
+        <v>1</v>
+      </c>
+      <c r="I21" s="51">
+        <v>220000</v>
+      </c>
+      <c r="J21" s="51">
+        <v>220000</v>
+      </c>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45">
+        <v>10</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G22" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H22" s="44">
         <v>1</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I22" s="44">
         <v>100000</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J22" s="44">
         <v>100000</v>
       </c>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="46">
-        <f>SUM(J13:J21)</f>
-        <v>610000</v>
-      </c>
-      <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="46">
+        <f>SUM(J13:J22)</f>
+        <v>830000</v>
+      </c>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -1813,49 +1842,49 @@
       <c r="J24" s="31"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="58" t="s">
+    <row r="25" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="34"/>
-      <c r="AA25" s="2"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="34"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60" t="s">
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="AA26" s="2"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="83"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -1864,9 +1893,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="35" t="s">
-        <v>17</v>
-      </c>
+      <c r="F28" s="35"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="35"/>
@@ -1879,7 +1906,9 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="35"/>
+      <c r="F29" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="35"/>
@@ -1899,84 +1928,94 @@
       <c r="J30" s="36"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56" t="s">
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-      <c r="AA31" s="2"/>
-    </row>
-    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="5:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F33" s="4"/>
+    <row r="33" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="5:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E34" s="4"/>
+    <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F34" s="4"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E35" s="4"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="27:27" x14ac:dyDescent="0.25">
@@ -1987,10 +2026,20 @@
     </row>
     <row r="51" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA52" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B25:D26"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -2002,13 +2051,6 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B24:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
